--- a/Daily Health Checkup/TABLEAU Datasources Health Check.xlsx
+++ b/Daily Health Checkup/TABLEAU Datasources Health Check.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sivakumar\TechM-Nissan\Daily Health Checkup\"/>
@@ -26,6 +26,117 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
   <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>Extract/Live</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Owner​</t>
+  </si>
+  <si>
+    <t>Extract Date</t>
+  </si>
+  <si>
+    <t>3MIS_Warranty_App_Prod</t>
+  </si>
+  <si>
+    <t>usnencvl729(Oracle)</t>
+  </si>
+  <si>
+    <t>Extract</t>
+  </si>
+  <si>
+    <t>3MIS</t>
+  </si>
+  <si>
+    <t>Maheshwaran,Priyanka</t>
+  </si>
+  <si>
+    <t>BMIS​_JAX</t>
+  </si>
+  <si>
+    <t>usnencvl729(Ora​cle)    usnencpl75(Hive)        Tableau DS    </t>
+  </si>
+  <si>
+    <t>BMIS</t>
+  </si>
+  <si>
+    <t>Suddala,Venkat Reddy</t>
+  </si>
+  <si>
+    <t>BMIS_Vehicle_Warrant​y</t>
+  </si>
+  <si>
+    <t>usnencvl729(Oracle)    usnencpl75(Hive)           </t>
+  </si>
+  <si>
+    <t>QCS_Corrective Action Status_Global_Prod</t>
+  </si>
+  <si>
+    <t>QCS Application</t>
+  </si>
+  <si>
+    <t>QCS_Monthly Trend Chart_Global_Prod</t>
+  </si>
+  <si>
+    <t>QCS_Questions and Issues LIVE_Global_Prod</t>
+  </si>
+  <si>
+    <t>QCS_Questions and Issues_Global_Prod</t>
+  </si>
+  <si>
+    <t>QCS_Top Issues with VOC and GCAR_Global_Prod</t>
+  </si>
+  <si>
+    <t>EQUIP Techline_Prod </t>
+  </si>
+  <si>
+    <t>usnencpl075(Hive)</t>
+  </si>
+  <si>
+    <t>EQUIP Repor​ting</t>
+  </si>
+  <si>
+    <t>EQUIP_AVES_ODBC </t>
+  </si>
+  <si>
+    <t>EQUIP Reporting</t>
+  </si>
+  <si>
+    <t>EQUIP_Consumer Affairs</t>
+  </si>
+  <si>
+    <t>EQUIP_INSPECT_ODBC</t>
+  </si>
+  <si>
+    <t>EQUIP_Vehicle_Production​ </t>
+  </si>
+  <si>
+    <t>IR_Cumulative MIS_Limited </t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>IR_MIS_Cumultive_Limited_Default Filters</t>
+  </si>
+  <si>
+    <t>Quiton,Jonathan</t>
+  </si>
+  <si>
+    <t>IR_MIS_Limited</t>
+  </si>
+  <si>
+    <t>IR_MIS_Limited_Default Filters</t>
+  </si>
+  <si>
+    <t>Maheshwaran,Priyanka​</t>
+  </si>
+  <si>
     <r>
       <t> </t>
     </r>
@@ -33,130 +144,19 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
       <t>Tableau Data Source</t>
     </r>
   </si>
-  <si>
-    <t>Connection</t>
-  </si>
-  <si>
-    <t>Extract/Live</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>Owner​</t>
-  </si>
-  <si>
-    <t>Extract Date</t>
-  </si>
-  <si>
-    <t>3MIS_Warranty_App_Prod</t>
-  </si>
-  <si>
-    <t>usnencvl729(Oracle)</t>
-  </si>
-  <si>
-    <t>Extract</t>
-  </si>
-  <si>
-    <t>3MIS</t>
-  </si>
-  <si>
-    <t>Maheshwaran,Priyanka</t>
-  </si>
-  <si>
-    <t>BMIS​_JAX</t>
-  </si>
-  <si>
-    <t>usnencvl729(Ora​cle)    usnencpl75(Hive)        Tableau DS    </t>
-  </si>
-  <si>
-    <t>BMIS</t>
-  </si>
-  <si>
-    <t>Suddala,Venkat Reddy</t>
-  </si>
-  <si>
-    <t>BMIS_Vehicle_Warrant​y</t>
-  </si>
-  <si>
-    <t>usnencvl729(Oracle)    usnencpl75(Hive)           </t>
-  </si>
-  <si>
-    <t>QCS_Corrective Action Status_Global_Prod</t>
-  </si>
-  <si>
-    <t>QCS Application</t>
-  </si>
-  <si>
-    <t>QCS_Monthly Trend Chart_Global_Prod</t>
-  </si>
-  <si>
-    <t>QCS_Questions and Issues LIVE_Global_Prod</t>
-  </si>
-  <si>
-    <t>QCS_Questions and Issues_Global_Prod</t>
-  </si>
-  <si>
-    <t>QCS_Top Issues with VOC and GCAR_Global_Prod</t>
-  </si>
-  <si>
-    <t>EQUIP Techline_Prod </t>
-  </si>
-  <si>
-    <t>usnencpl075(Hive)</t>
-  </si>
-  <si>
-    <t>EQUIP Repor​ting</t>
-  </si>
-  <si>
-    <t>EQUIP_AVES_ODBC </t>
-  </si>
-  <si>
-    <t>EQUIP Reporting</t>
-  </si>
-  <si>
-    <t>EQUIP_Consumer Affairs</t>
-  </si>
-  <si>
-    <t>EQUIP_INSPECT_ODBC</t>
-  </si>
-  <si>
-    <t>EQUIP_Vehicle_Production​ </t>
-  </si>
-  <si>
-    <t>IR_Cumulative MIS_Limited </t>
-  </si>
-  <si>
-    <t>Live</t>
-  </si>
-  <si>
-    <t>IR_MIS_Cumultive_Limited_Default Filters</t>
-  </si>
-  <si>
-    <t>Quiton,Jonathan</t>
-  </si>
-  <si>
-    <t>IR_MIS_Limited</t>
-  </si>
-  <si>
-    <t>IR_MIS_Limited_Default Filters</t>
-  </si>
-  <si>
-    <t>Maheshwaran,Priyanka​</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,25 +180,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF1F497D"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,12 +226,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAEAAAA"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -282,32 +301,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -320,8 +338,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,10 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="A1:F18"/>
+      <selection activeCell="F2" sqref="F2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,365 +654,443 @@
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2+1</f>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="F3:G18" si="0">F3+1</f>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="8">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="F5" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="8">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44028</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>44029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="9">
-        <v>44020</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="8">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="8">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="8">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="8">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="8">
-        <v>44021</v>
-      </c>
+      <c r="F18" s="2">
+        <v>44029</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Daily Health Checkup/TABLEAU Datasources Health Check.xlsx
+++ b/Daily Health Checkup/TABLEAU Datasources Health Check.xlsx
@@ -640,10 +640,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F18"/>
+      <selection activeCell="F18" sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +657,7 @@
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>37</v>
       </c>
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -694,14 +694,11 @@
         <v>9</v>
       </c>
       <c r="F2" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G2" s="2">
-        <f>F2+1</f>
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f ca="1">TODAY()</f>
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -718,38 +715,32 @@
         <v>13</v>
       </c>
       <c r="F3" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="F3:G18" si="0">F3+1</f>
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+        <f t="shared" ref="F3:F14" ca="1" si="0">TODAY()</f>
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="3">
+        <f ca="1">TODAY()-1</f>
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -766,14 +757,11 @@
         <v>13</v>
       </c>
       <c r="F5" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -790,14 +778,11 @@
         <v>13</v>
       </c>
       <c r="F6" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -814,14 +799,11 @@
         <v>13</v>
       </c>
       <c r="F7" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -838,14 +820,11 @@
         <v>13</v>
       </c>
       <c r="F8" s="3">
-        <v>44028</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>44029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f ca="1">TODAY()-1</f>
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -862,14 +841,11 @@
         <v>13</v>
       </c>
       <c r="F9" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -886,14 +862,11 @@
         <v>13</v>
       </c>
       <c r="F10" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -910,14 +883,11 @@
         <v>9</v>
       </c>
       <c r="F11" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -934,14 +904,11 @@
         <v>9</v>
       </c>
       <c r="F12" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -958,14 +925,11 @@
         <v>9</v>
       </c>
       <c r="F13" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -982,14 +946,11 @@
         <v>13</v>
       </c>
       <c r="F14" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1005,10 +966,9 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1025,14 +985,11 @@
         <v>33</v>
       </c>
       <c r="F16" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f ca="1">TODAY()</f>
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1049,14 +1006,11 @@
         <v>9</v>
       </c>
       <c r="F17" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="0"/>
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F17:F18" ca="1" si="1">TODAY()</f>
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1073,23 +1027,20 @@
         <v>36</v>
       </c>
       <c r="F18" s="2">
-        <v>44029</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="0"/>
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E24" s="8"/>
     </row>
   </sheetData>

--- a/Daily Health Checkup/TABLEAU Datasources Health Check.xlsx
+++ b/Daily Health Checkup/TABLEAU Datasources Health Check.xlsx
@@ -695,7 +695,7 @@
       </c>
       <c r="F2" s="2">
         <f ca="1">TODAY()</f>
-        <v>44040</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -716,28 +716,28 @@
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F14" ca="1" si="0">TODAY()</f>
-        <v>44040</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3">
-        <f ca="1">TODAY()-1</f>
-        <v>44039</v>
+      <c r="F4" s="2">
+        <f ca="1">TODAY()</f>
+        <v>44043</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -758,7 +758,7 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44040</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -779,7 +779,7 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44040</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -800,7 +800,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44040</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
       </c>
       <c r="F8" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>44039</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -842,7 +842,7 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44040</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -863,7 +863,7 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44040</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -884,7 +884,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44040</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -905,7 +905,7 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44040</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -926,7 +926,7 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44040</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44040</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
       </c>
       <c r="F16" s="2">
         <f ca="1">TODAY()</f>
-        <v>44040</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" ref="F17:F18" ca="1" si="1">TODAY()</f>
-        <v>44040</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44040</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
